--- a/tidy_data/DETECTR_034_integrated_standard.xlsx
+++ b/tidy_data/DETECTR_034_integrated_standard.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Amy_Lyden_CZBiohub/DETECTR/github/DETECTR/tidy_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1DDA0A7-0D4C-5B48-94A3-CA9BA917B726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937EE708-424D-F249-9F22-C8A81A1FF336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DETECTR_034_integrated_standard" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -602,6 +601,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Overnight Integration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -719,50 +743,56 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>DETECTR_034_integrated_standard!$B$12:$B$25</c:f>
+              <c:f>DETECTR_034_integrated_standard!$B$10:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.3125</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.3125</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.15625</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0.15625</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>7.8125E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>7.8125E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>3.90625E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>3.90625E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>1.9531199999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>1.9531199999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>9.7655999999999993E-3</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>9.7655999999999993E-3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -770,50 +800,56 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DETECTR_034_integrated_standard!$D$12:$D$25</c:f>
+              <c:f>DETECTR_034_integrated_standard!$D$10:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>57319.332999999897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60550.385999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>32673.856</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>35514.807999999903</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>21120.986000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>22215.140999999901</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>16915.609</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>18582.052999999902</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>27869.416000000001</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>36022.159999999902</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>12033.8019999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>12224.487999999899</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>12196.118</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>11811.2699999999</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>11114.816000000001</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>10459.6059999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1574,15 +1610,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:colOff>469901</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>681182</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1909,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
